--- a/data/trans_camb/P36_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,9</t>
+          <t>-4,95; 1,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,59</t>
+          <t>-4,67; 1,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,47</t>
+          <t>-4,62; 2,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,4</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,08</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,68</t>
+          <t>0,29; 4,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 1,33</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 0,9</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 2,0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>-22,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,83%</t>
+          <t>-24,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-66,43%</t>
+          <t>-36,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-49,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>89,05%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,19%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-33,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26,71%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-8,69%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>56,1%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,12 +929,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,9; 369,18</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-89,68; 311,94</t>
+          <t>-93,6; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,17 +959,47 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,96; 268,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-82,11; 199,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-85,23; 204,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-87,0; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-88,48; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,09</t>
+          <t>-4,68; 0,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,68</t>
+          <t>-4,42; 1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,92</t>
+          <t>-3,99; 2,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,18</t>
+          <t>-0,6; 1,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,83</t>
+          <t>0,85; 3,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,02</t>
+          <t>0,16; 3,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 0,83</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 1,91</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 1,88</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,46%</t>
+          <t>-34,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>-26,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>-10,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>410,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>475,32%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>727,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>81,89%</t>
+          <t>447,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>125,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-20,99%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>49,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>36,79%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,76; 137,89</t>
+          <t>-87,39; 83,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,05; 184,28</t>
+          <t>-81,82; 143,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,24; 303,63</t>
+          <t>-81,48; 203,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-91,42; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,29; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,57; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,5; 133,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 301,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 383,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-79,52; 138,41</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-44,96; 311,61</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-55,53; 278,23</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 2,29</t>
+          <t>-1,57; 3,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,37</t>
+          <t>-2,21; 2,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 1,17</t>
+          <t>-0,69; 5,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,8</t>
+          <t>-0,45; 4,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,5</t>
+          <t>-2,09; 2,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,15</t>
+          <t>-1,95; 2,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 2,85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 1,68</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 3,51</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,68%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-35,25%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-47,48%</t>
+          <t>121,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>138,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>104,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-34,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>69,68%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>73,66%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,42; 172,38</t>
+          <t>-65,16; 492,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,53; 109,06</t>
+          <t>-76,26; 371,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 96,64</t>
+          <t>-44,34; 658,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 638,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 409,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-83,2; 264,01</t>
+          <t>-29,08; 600,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 189,1</t>
+          <t>-67,79; 291,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,03; 95,28</t>
+          <t>-72,73; 349,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-84,02; 53,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-27,69; 261,0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-48,72; 181,36</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-30,34; 348,27</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,93</t>
+          <t>-4,2; 1,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,03</t>
+          <t>-3,11; 2,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,87</t>
+          <t>-2,0; 1,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,05</t>
+          <t>-0,4; 3,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 0,94</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 2,68</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,01%</t>
+          <t>-21,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-18,46%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>127,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>125,72%</t>
+          <t>-34,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>119,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-24,31%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>58,25%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-60,63; 65,34</t>
+          <t>-89,92; 196,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,33; 52,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 71,85</t>
+          <t>-77,71; 308,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 324,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,73; 410,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,76; 412,95</t>
+          <t>-100,0; 232,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 90,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,58; 100,71</t>
+          <t>-43,52; 669,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 104,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-77,98; 104,51</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-44,19; 241,81</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 0,78</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 0,79</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 1,93</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 1,28</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 1,68</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 2,1</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 0,82</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 0,94</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 1,78</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-16,54%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-19,16%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23,49%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>48,88%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>73,01%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>109,07%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>50,34%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-62,83; 56,55</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-61,81; 58,09</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-46,41; 127,07</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-31,95; 215,33</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-16,42; 277,71</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 356,82</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-40,18; 71,4</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-33,22; 81,22</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; 141,7</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
